--- a/Trainers.xlsx
+++ b/Trainers.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sdassq-my.sharepoint.com/personal/ba004629_bac_qld_edu_au/Documents/Documents/GitHub/Pokémon PythonRed/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sdassq-my.sharepoint.com/personal/ba004629_bac_qld_edu_au/Documents/Documents/GitHub/PPR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{2DDE642C-4567-4683-8F41-BD58C67A06E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C1141564-EEB5-4521-A78E-6FB683457E5F}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{2DDE642C-4567-4683-8F41-BD58C67A06E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C1360088-5BAA-44E2-8841-0AA80DFFE6F4}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{EC66E77F-F4AD-4394-A5FD-14229BBC43E9}"/>
   </bookViews>
@@ -186,9 +186,6 @@
     <t>Yell</t>
   </si>
   <si>
-    <t>Goh</t>
-  </si>
-  <si>
     <t>Iris</t>
   </si>
   <si>
@@ -402,9 +399,6 @@
     <t>Grant</t>
   </si>
   <si>
-    <t>Korrinaa</t>
-  </si>
-  <si>
     <t>Ramos</t>
   </si>
   <si>
@@ -934,6 +928,12 @@
   </si>
   <si>
     <t>Shielbert</t>
+  </si>
+  <si>
+    <t>Korrina</t>
+  </si>
+  <si>
+    <t>Goh (Not Canon)</t>
   </si>
 </sst>
 </file>
@@ -1408,10 +1408,10 @@
   <dimension ref="A1:P64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N2" sqref="N2"/>
+      <selection pane="bottomRight" activeCell="K57" sqref="K57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1426,7 +1426,7 @@
   <sheetData>
     <row r="1" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1476,13 +1476,13 @@
     </row>
     <row r="2" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>36</v>
@@ -1491,29 +1491,29 @@
         <v>44</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>47</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="O2" s="3"/>
       <c r="P2" s="8" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
@@ -1521,7 +1521,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>37</v>
@@ -1530,70 +1530,70 @@
         <v>45</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>48</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>30</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="O4" s="3"/>
       <c r="P4" s="8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>29</v>
@@ -1602,121 +1602,121 @@
         <v>39</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>31</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
@@ -1727,16 +1727,16 @@
         <v>20</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>46</v>
@@ -1745,58 +1745,58 @@
         <v>32</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="O9" s="3"/>
       <c r="P9" s="8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J10" s="6"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="O10" s="3"/>
       <c r="P10" s="8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
@@ -1804,191 +1804,191 @@
         <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="P11" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B12" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>122</v>
+        <v>298</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B13" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="P13" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B14" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B15" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="P15" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B16" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="P16" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.35">
@@ -1996,71 +1996,71 @@
         <v>23</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="P17" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="13" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="E18" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="J18" s="6"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="O18" s="3"/>
       <c r="P18" s="8" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.35">
@@ -2068,31 +2068,31 @@
         <v>25</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="E19" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="P19" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.35">
@@ -2100,31 +2100,31 @@
         <v>26</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="P20" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.35">
@@ -2132,31 +2132,31 @@
         <v>27</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="P21" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.35">
@@ -2164,10 +2164,10 @@
         <v>16</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>40</v>
@@ -2176,16 +2176,16 @@
         <v>33</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="J22" s="6"/>
       <c r="K22" s="3"/>
@@ -2194,27 +2194,27 @@
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
       <c r="P22" s="8" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" s="13" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>41</v>
@@ -2235,22 +2235,22 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="14" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>42</v>
@@ -2259,325 +2259,325 @@
         <v>35</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" s="14" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B26" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B27" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B28" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B29" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B30" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B31" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B32" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B33" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B34" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B35" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" s="13" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J36" s="6"/>
       <c r="K36" s="3"/>
@@ -2589,115 +2589,115 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="H37" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>234</v>
-      </c>
       <c r="I37" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" s="14" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B39" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" s="13" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="J40" s="6"/>
       <c r="K40" s="3"/>
@@ -2709,369 +2709,369 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B41" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B42" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B43" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B44" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B45" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B46" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B47" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B48" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B49" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B50" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B51" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B52" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B53" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A54" s="13" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C54" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E54" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>177</v>
-      </c>
       <c r="F54" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J54" s="6"/>
       <c r="K54" s="3"/>
@@ -3083,163 +3083,163 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B55" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B56" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>50</v>
+        <v>299</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B57" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C58" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C59" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.35">
       <c r="F60" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.35">
       <c r="F61" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.35">
       <c r="F62" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.35">
       <c r="F63" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.35">
       <c r="G64" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>

--- a/Trainers.xlsx
+++ b/Trainers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sdassq-my.sharepoint.com/personal/ba004629_bac_qld_edu_au/Documents/Documents/GitHub/PPR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{2DDE642C-4567-4683-8F41-BD58C67A06E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C1360088-5BAA-44E2-8841-0AA80DFFE6F4}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{2DDE642C-4567-4683-8F41-BD58C67A06E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{9E3D108E-FEF1-4DBE-ADE1-E502D11B47B3}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{EC66E77F-F4AD-4394-A5FD-14229BBC43E9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="303">
   <si>
     <t>Kanto</t>
   </si>
@@ -934,6 +934,15 @@
   </si>
   <si>
     <t>Goh (Not Canon)</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Butch (Not Canon)</t>
+  </si>
+  <si>
+    <t>? (Not Canon)</t>
   </si>
 </sst>
 </file>
@@ -1408,10 +1417,10 @@
   <dimension ref="A1:P64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K57" sqref="K57"/>
+      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1596,7 +1605,7 @@
         <v>70</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>29</v>
+        <v>300</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>39</v>
@@ -1628,7 +1637,7 @@
         <v>282</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>282</v>
+        <v>29</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>282</v>
@@ -2167,7 +2176,7 @@
         <v>282</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>40</v>
@@ -2345,7 +2354,7 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B28" s="2" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>282</v>
@@ -2371,7 +2380,7 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B29" s="2" t="s">
-        <v>282</v>
+        <v>302</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>282</v>

--- a/Trainers.xlsx
+++ b/Trainers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sdassq-my.sharepoint.com/personal/ba004629_bac_qld_edu_au/Documents/Documents/GitHub/PPR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{2DDE642C-4567-4683-8F41-BD58C67A06E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{9E3D108E-FEF1-4DBE-ADE1-E502D11B47B3}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="13_ncr:1_{2DDE642C-4567-4683-8F41-BD58C67A06E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{75D65939-FAF8-44E3-8168-E472D2E62656}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{EC66E77F-F4AD-4394-A5FD-14229BBC43E9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="308">
   <si>
     <t>Kanto</t>
   </si>
@@ -900,12 +900,6 @@
     <t>Shadow Triad (3/1)</t>
   </si>
   <si>
-    <t>Ash (Not Canon)</t>
-  </si>
-  <si>
-    <t>Gary (Not Canon)</t>
-  </si>
-  <si>
     <t>Soliera</t>
   </si>
   <si>
@@ -933,16 +927,37 @@
     <t>Korrina</t>
   </si>
   <si>
-    <t>Goh (Not Canon)</t>
-  </si>
-  <si>
     <t>Gold</t>
   </si>
   <si>
-    <t>Butch (Not Canon)</t>
-  </si>
-  <si>
-    <t>? (Not Canon)</t>
+    <t>Break</t>
+  </si>
+  <si>
+    <t>Trista</t>
+  </si>
+  <si>
+    <t>Trinnia</t>
+  </si>
+  <si>
+    <t>Tricia</t>
+  </si>
+  <si>
+    <t>Youngster Joey</t>
+  </si>
+  <si>
+    <t>Ash (NC)</t>
+  </si>
+  <si>
+    <t>Gary (NC)</t>
+  </si>
+  <si>
+    <t>Goh  (NC)</t>
+  </si>
+  <si>
+    <t>Butch (NC)</t>
+  </si>
+  <si>
+    <t>? (NC)</t>
   </si>
 </sst>
 </file>
@@ -982,7 +997,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1050,12 +1065,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1098,6 +1124,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1414,13 +1446,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D373FF9C-8932-4754-869D-51DF18A2C3A7}">
-  <dimension ref="A1:P64"/>
+  <dimension ref="A1:Q64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomRight" activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1430,10 +1462,11 @@
     <col min="10" max="10" width="14.6328125" style="7"/>
     <col min="11" max="15" width="14.6328125" style="2"/>
     <col min="16" max="16" width="14.6328125" style="9"/>
-    <col min="17" max="16384" width="14.6328125" style="2"/>
+    <col min="17" max="17" width="14.6328125" style="16"/>
+    <col min="18" max="16384" width="14.6328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>278</v>
       </c>
@@ -1482,8 +1515,11 @@
       <c r="P1" s="11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="Q1" s="15" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>221</v>
       </c>
@@ -1524,8 +1560,9 @@
       <c r="P2" s="8" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q2" s="16"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
         <v>18</v>
       </c>
@@ -1550,9 +1587,6 @@
       <c r="I3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="J3" s="7" t="s">
-        <v>282</v>
-      </c>
       <c r="N3" s="2" t="s">
         <v>282</v>
       </c>
@@ -1560,7 +1594,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>220</v>
       </c>
@@ -1600,12 +1634,12 @@
         <v>282</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>39</v>
@@ -1632,7 +1666,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
         <v>282</v>
       </c>
@@ -1664,7 +1698,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
         <v>282</v>
       </c>
@@ -1696,7 +1730,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
         <v>282</v>
       </c>
@@ -1728,7 +1762,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
         <v>15</v>
       </c>
@@ -1768,7 +1802,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>219</v>
       </c>
@@ -1808,7 +1842,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B11" s="2" t="s">
         <v>22</v>
       </c>
@@ -1840,7 +1874,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B12" s="2" t="s">
         <v>81</v>
       </c>
@@ -1857,7 +1891,7 @@
         <v>112</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>139</v>
@@ -1872,7 +1906,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B13" s="2" t="s">
         <v>82</v>
       </c>
@@ -1904,7 +1938,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B14" s="2" t="s">
         <v>93</v>
       </c>
@@ -1936,7 +1970,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B15" s="2" t="s">
         <v>83</v>
       </c>
@@ -1968,7 +2002,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B16" s="2" t="s">
         <v>84</v>
       </c>
@@ -2058,7 +2092,7 @@
         <v>137</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="J18" s="6"/>
       <c r="K18" s="3"/>
@@ -2095,7 +2129,7 @@
         <v>141</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="N19" s="2" t="s">
         <v>279</v>
@@ -2108,9 +2142,6 @@
       <c r="B20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>279</v>
-      </c>
       <c r="D20" s="2" t="s">
         <v>152</v>
       </c>
@@ -2127,7 +2158,7 @@
         <v>144</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="N20" s="2" t="s">
         <v>279</v>
@@ -2159,7 +2190,7 @@
         <v>146</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="N21" s="2" t="s">
         <v>279</v>
@@ -2240,7 +2271,9 @@
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
-      <c r="P23" s="8"/>
+      <c r="P23" s="8" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="14" t="s">
@@ -2270,6 +2303,9 @@
       <c r="I24" s="2" t="s">
         <v>134</v>
       </c>
+      <c r="P24" s="9" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" s="14" t="s">
@@ -2354,7 +2390,7 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B28" s="2" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>282</v>
@@ -2380,7 +2416,7 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B29" s="2" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>282</v>
@@ -2586,7 +2622,7 @@
         <v>281</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="J36" s="6"/>
       <c r="K36" s="3"/>
@@ -3056,10 +3092,10 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A54" s="13" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>173</v>
@@ -3079,8 +3115,8 @@
       <c r="H54" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>134</v>
+      <c r="I54" s="8" t="s">
+        <v>135</v>
       </c>
       <c r="J54" s="6"/>
       <c r="K54" s="3"/>
@@ -3088,11 +3124,13 @@
       <c r="M54" s="3"/>
       <c r="N54" s="3"/>
       <c r="O54" s="3"/>
-      <c r="P54" s="8"/>
+      <c r="P54" s="8" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B55" s="2" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>174</v>
@@ -3113,7 +3151,10 @@
         <v>285</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>135</v>
+        <v>305</v>
+      </c>
+      <c r="P55" s="9" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.35">
@@ -3136,10 +3177,13 @@
         <v>190</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>299</v>
+        <v>273</v>
+      </c>
+      <c r="P56" s="9" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.35">
@@ -3159,13 +3203,16 @@
         <v>191</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B58" s="2" t="s">
+        <v>302</v>
+      </c>
       <c r="C58" s="2" t="s">
         <v>240</v>
       </c>
@@ -3179,10 +3226,10 @@
         <v>263</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.35">
@@ -3196,10 +3243,10 @@
         <v>264</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.35">
@@ -3210,7 +3257,7 @@
         <v>265</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.35">
@@ -3221,7 +3268,7 @@
         <v>266</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.35">
@@ -3232,7 +3279,7 @@
         <v>267</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.35">
@@ -3241,9 +3288,6 @@
       </c>
       <c r="G63" s="2" t="s">
         <v>268</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.35">

--- a/Trainers.xlsx
+++ b/Trainers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sdassq-my.sharepoint.com/personal/ba004629_bac_qld_edu_au/Documents/Documents/GitHub/PPR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="13_ncr:1_{2DDE642C-4567-4683-8F41-BD58C67A06E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{75D65939-FAF8-44E3-8168-E472D2E62656}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="13_ncr:1_{2DDE642C-4567-4683-8F41-BD58C67A06E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{EE7CEC5B-3FBE-406F-9FF5-0CC7D8171ADE}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{EC66E77F-F4AD-4394-A5FD-14229BBC43E9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="310">
   <si>
     <t>Kanto</t>
   </si>
@@ -958,6 +958,12 @@
   </si>
   <si>
     <t>? (NC)</t>
+  </si>
+  <si>
+    <t>Scottie</t>
+  </si>
+  <si>
+    <t>Bettie</t>
   </si>
 </sst>
 </file>
@@ -1449,10 +1455,10 @@
   <dimension ref="A1:Q64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O16" sqref="O16"/>
+      <selection pane="bottomRight" activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1558,7 +1564,7 @@
       </c>
       <c r="O2" s="3"/>
       <c r="P2" s="8" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="Q2" s="16"/>
     </row>
@@ -1591,7 +1597,7 @@
         <v>282</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>282</v>
+        <v>309</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">

--- a/Trainers.xlsx
+++ b/Trainers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sdassq-my.sharepoint.com/personal/ba004629_bac_qld_edu_au/Documents/Documents/GitHub/PPR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="13_ncr:1_{2DDE642C-4567-4683-8F41-BD58C67A06E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{EE7CEC5B-3FBE-406F-9FF5-0CC7D8171ADE}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="13_ncr:1_{2DDE642C-4567-4683-8F41-BD58C67A06E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E0FF53FC-EF76-4C8A-B447-2B820E2051E5}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{EC66E77F-F4AD-4394-A5FD-14229BBC43E9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="309">
   <si>
     <t>Kanto</t>
   </si>
@@ -940,9 +940,6 @@
   </si>
   <si>
     <t>Tricia</t>
-  </si>
-  <si>
-    <t>Youngster Joey</t>
   </si>
   <si>
     <t>Ash (NC)</t>
@@ -1458,7 +1455,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P3" sqref="P3"/>
+      <selection pane="bottomRight" activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1556,15 +1553,23 @@
       <c r="J2" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
+      <c r="K2" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>279</v>
+      </c>
       <c r="N2" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="O2" s="3"/>
+      <c r="O2" s="3" t="s">
+        <v>279</v>
+      </c>
       <c r="P2" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Q2" s="16"/>
     </row>
@@ -1597,7 +1602,7 @@
         <v>282</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
@@ -2396,7 +2401,7 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B28" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>282</v>
@@ -2422,7 +2427,7 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B29" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>282</v>
@@ -3101,7 +3106,7 @@
         <v>293</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>173</v>
@@ -3136,7 +3141,7 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B55" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>174</v>
@@ -3157,7 +3162,7 @@
         <v>285</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="P55" s="9" t="s">
         <v>301</v>
@@ -3216,9 +3221,6 @@
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B58" s="2" t="s">
-        <v>302</v>
-      </c>
       <c r="C58" s="2" t="s">
         <v>240</v>
       </c>

--- a/Trainers.xlsx
+++ b/Trainers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sdassq-my.sharepoint.com/personal/ba004629_bac_qld_edu_au/Documents/Documents/GitHub/PPR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="13_ncr:1_{2DDE642C-4567-4683-8F41-BD58C67A06E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E0FF53FC-EF76-4C8A-B447-2B820E2051E5}"/>
+  <xr:revisionPtr revIDLastSave="75" documentId="13_ncr:1_{2DDE642C-4567-4683-8F41-BD58C67A06E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{75D998DC-BE20-4181-B897-FDC1BFD16616}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{EC66E77F-F4AD-4394-A5FD-14229BBC43E9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="312">
   <si>
     <t>Kanto</t>
   </si>
@@ -961,6 +961,15 @@
   </si>
   <si>
     <t>Bettie</t>
+  </si>
+  <si>
+    <t>Prof. Seymour</t>
+  </si>
+  <si>
+    <t>Prof. Oswald</t>
+  </si>
+  <si>
+    <t>Prof. Hale</t>
   </si>
 </sst>
 </file>
@@ -1455,7 +1464,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B66" sqref="B66"/>
+      <selection pane="bottomRight" activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1571,7 +1580,9 @@
       <c r="P2" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="Q2" s="16"/>
+      <c r="Q2" s="16" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
@@ -1603,6 +1614,9 @@
       </c>
       <c r="P3" s="9" t="s">
         <v>308</v>
+      </c>
+      <c r="Q3" s="16" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
@@ -1643,6 +1657,9 @@
       <c r="O4" s="3"/>
       <c r="P4" s="8" t="s">
         <v>282</v>
+      </c>
+      <c r="Q4" s="16" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
